--- a/data/trans_orig/Q20C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Provincia-trans_orig.xlsx
@@ -1027,16 +1027,16 @@
         <v>968</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6152</v>
+        <v>6155</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3417659194827134</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1074749597647612</v>
+        <v>0.1074707554390519</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6832019644424087</v>
+        <v>0.6835377867252278</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1045,19 +1045,19 @@
         <v>3077</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7345</v>
+        <v>7174</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2182752273398643</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06874620135362465</v>
+        <v>0.06961360391381329</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5209770592156895</v>
+        <v>0.5088177147000434</v>
       </c>
     </row>
     <row r="10">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4190</v>
+        <v>4075</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2042634374246091</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8225007942739236</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5025</v>
+        <v>5032</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2168330084548305</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.558059077431014</v>
+        <v>0.5588442291886923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1116,19 +1116,19 @@
         <v>2993</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6987</v>
+        <v>6897</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2122912301850424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06794901711024008</v>
+        <v>0.06749503191319918</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4955502244112506</v>
+        <v>0.4891529971777389</v>
       </c>
     </row>
     <row r="11">
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5282</v>
+        <v>4773</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07607890188012859</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3746399996335852</v>
+        <v>0.3385476208138984</v>
       </c>
     </row>
     <row r="12">
@@ -1208,7 +1208,7 @@
         <v>2981</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>5094</v>
@@ -1217,7 +1217,7 @@
         <v>0.5851848569924296</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1751941109751215</v>
+        <v>0.1741912152096935</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1229,19 +1229,19 @@
         <v>3974</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1067</v>
+        <v>1001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7083</v>
+        <v>7018</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.441401072062456</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1184516136994515</v>
+        <v>0.1111201364531682</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7866743284338943</v>
+        <v>0.779431292174492</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1250,19 +1250,19 @@
         <v>6956</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3132</v>
+        <v>3032</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11012</v>
+        <v>10165</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4933546405949647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2221711829446922</v>
+        <v>0.2150318721710943</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7810354127734422</v>
+        <v>0.7209454952343008</v>
       </c>
     </row>
     <row r="13">
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3666</v>
+        <v>3646</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1342713332982898</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.564496622359358</v>
+        <v>0.561484156844255</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3666</v>
+        <v>3646</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1342713332982898</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.564496622359358</v>
+        <v>0.561484156844255</v>
       </c>
     </row>
     <row r="20">
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3615</v>
+        <v>3712</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1342713332982898</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5566110497972649</v>
+        <v>0.5716583914561151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3615</v>
+        <v>3712</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1342713332982898</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5566110497972649</v>
+        <v>0.5716583914561151</v>
       </c>
     </row>
     <row r="21">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3836</v>
+        <v>3849</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1453565017749504</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5907360023650712</v>
+        <v>0.5926542602220736</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3836</v>
+        <v>3849</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1453565017749504</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5907360023650712</v>
+        <v>0.5926542602220736</v>
       </c>
     </row>
     <row r="22">
@@ -1835,19 +1835,19 @@
         <v>3806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>967</v>
+        <v>998</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5655</v>
+        <v>5661</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5861008316284699</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1489165114941984</v>
+        <v>0.1537044001359783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8708572019182147</v>
+        <v>0.871762051617513</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1856,19 +1856,19 @@
         <v>3806</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>967</v>
+        <v>998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5655</v>
+        <v>5661</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5861008316284699</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1489165114941984</v>
+        <v>0.1537044001359783</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8708572019182147</v>
+        <v>0.871762051617513</v>
       </c>
     </row>
     <row r="23">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3697</v>
+        <v>2823</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2529049995410094</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>1</v>
+        <v>0.7636861851906196</v>
       </c>
     </row>
     <row r="26">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2794</v>
+        <v>3424</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2421473688860424</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.755751946519067</v>
+        <v>0.9262317845538782</v>
       </c>
     </row>
     <row r="27">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4739</v>
+        <v>3924</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1019519877169267</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4951770548254953</v>
+        <v>0.4099708151473898</v>
       </c>
     </row>
     <row r="30">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4911</v>
+        <v>5018</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3327697264913952</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8246121105922262</v>
+        <v>0.8425430460284281</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5729</v>
+        <v>5971</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.207074907728238</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5986199111473428</v>
+        <v>0.6238681985541077</v>
       </c>
     </row>
     <row r="31">
@@ -2453,7 +2453,7 @@
         <v>3974</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1045</v>
+        <v>938</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>5956</v>
@@ -2462,7 +2462,7 @@
         <v>0.6672302735086048</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1753878894077734</v>
+        <v>0.1574569539715718</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2474,19 +2474,19 @@
         <v>6613</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2989</v>
+        <v>3355</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8620</v>
+        <v>8648</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6909731045548353</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3122616243327395</v>
+        <v>0.3505409435796638</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9006735412812836</v>
+        <v>0.9035786391353696</v>
       </c>
     </row>
     <row r="33">
@@ -2578,19 +2578,19 @@
         <v>6985</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3674</v>
+        <v>3721</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9970</v>
+        <v>10077</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5556824354591451</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2922669238909905</v>
+        <v>0.2959879426257301</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7931659702634596</v>
+        <v>0.8017006848320077</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5873</v>
+        <v>5789</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1211367926816946</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3617635725321121</v>
+        <v>0.3566322128077586</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2620,19 +2620,19 @@
         <v>8951</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4511</v>
+        <v>4514</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14637</v>
+        <v>14378</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3107771805507726</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1566132800449171</v>
+        <v>0.1567378041420145</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5081931493969817</v>
+        <v>0.4992107030518433</v>
       </c>
     </row>
     <row r="35">
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5661</v>
+        <v>5001</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1471657362028901</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4503384967981442</v>
+        <v>0.3978167934947302</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2670,19 +2670,19 @@
         <v>4676</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1805</v>
+        <v>1821</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8541</v>
+        <v>8903</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2880578809257837</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1111832557315611</v>
+        <v>0.1121588231382375</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5261584083633237</v>
+        <v>0.5484595015273127</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2691,19 +2691,19 @@
         <v>6526</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2667</v>
+        <v>2793</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11398</v>
+        <v>11405</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2265710350281257</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09259791697869803</v>
+        <v>0.09697691915922241</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3957331081201124</v>
+        <v>0.3959708368531318</v>
       </c>
     </row>
     <row r="36">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5706</v>
+        <v>5092</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1550811040916043</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4539380829311571</v>
+        <v>0.4051085536483381</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3996</v>
+        <v>4000</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06009595203445067</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2461945017989645</v>
+        <v>0.2464179394529555</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -2762,19 +2762,19 @@
         <v>2925</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6932</v>
+        <v>6997</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1015484930443883</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03278661227676306</v>
+        <v>0.03239267420680427</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.240682947497748</v>
+        <v>0.242938594606612</v>
       </c>
     </row>
     <row r="37">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5459</v>
+        <v>5186</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1420707242463605</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4342730165874355</v>
+        <v>0.4125718663309197</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -2812,19 +2812,19 @@
         <v>8615</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4781</v>
+        <v>4758</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12498</v>
+        <v>12357</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5307093743580711</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2945028521619051</v>
+        <v>0.2931269548784943</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7699273159175547</v>
+        <v>0.7612020062189171</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -2833,19 +2833,19 @@
         <v>10400</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5729</v>
+        <v>6216</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15900</v>
+        <v>16301</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3611032913767134</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1989037371258672</v>
+        <v>0.2158057622807875</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5520335657830883</v>
+        <v>0.5659631236098025</v>
       </c>
     </row>
     <row r="38">
@@ -2958,19 +2958,19 @@
         <v>2775</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5693</v>
+        <v>5630</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3321831089991671</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.09405928286529572</v>
+        <v>0.09460949458311521</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6815823654259087</v>
+        <v>0.6739549557179711</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -2979,19 +2979,19 @@
         <v>3684</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1051</v>
+        <v>983</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7473</v>
+        <v>7579</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2630728806477781</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.07505809738719459</v>
+        <v>0.07018643817305502</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5336874723198402</v>
+        <v>0.5412264946606797</v>
       </c>
     </row>
     <row r="40">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4074</v>
+        <v>4037</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1212883548216851</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4877873901959303</v>
+        <v>0.483320544331409</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4447</v>
+        <v>4795</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07234982991293183</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3175410611687017</v>
+        <v>0.3424362716914591</v>
       </c>
     </row>
     <row r="41">
@@ -3071,19 +3071,19 @@
         <v>2977</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4844</v>
+        <v>4831</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5269061434357597</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.158263197512992</v>
+        <v>0.1587248432426545</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8573830546490435</v>
+        <v>0.8551288595557676</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4414</v>
+        <v>4410</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.191914353739123</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5284845494763177</v>
+        <v>0.5279520750824099</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -3113,19 +3113,19 @@
         <v>4580</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1713</v>
+        <v>1788</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8440</v>
+        <v>8653</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3270798778193095</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1223646600833888</v>
+        <v>0.1277134749880674</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6027114114235802</v>
+        <v>0.6179193506083573</v>
       </c>
     </row>
     <row r="42">
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3821</v>
+        <v>4510</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3121922872869966</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6762551386161262</v>
+        <v>0.7982653426991415</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -3163,19 +3163,19 @@
         <v>2962</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>6210</v>
+        <v>6515</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3546141824400247</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09768060315569306</v>
+        <v>0.1008056347797742</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7434885961719081</v>
+        <v>0.7799426879670475</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5</v>
@@ -3184,19 +3184,19 @@
         <v>4726</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>8570</v>
+        <v>8489</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3374974116199805</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1240512141030703</v>
+        <v>0.1232812643174918</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6120045785351831</v>
+        <v>0.6062359415984894</v>
       </c>
     </row>
     <row r="43">
@@ -3288,19 +3288,19 @@
         <v>8870</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2662610094263413</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -3309,19 +3309,19 @@
         <v>8690</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1773090782634331</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>18</v>
@@ -3330,19 +3330,19 @@
         <v>17560</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2133025384103329</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
     </row>
     <row r="45">
@@ -3359,19 +3359,19 @@
         <v>3826</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>8088</v>
+        <v>8599</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1148394599023754</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02879666249462089</v>
+        <v>0.02986460200530949</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2427979413746257</v>
+        <v>0.2581469714718018</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>11</v>
@@ -3380,19 +3380,19 @@
         <v>10495</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>5612</v>
+        <v>5744</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>16950</v>
+        <v>16230</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2141366276093082</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1145064184447785</v>
+        <v>0.1171997327500351</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3458221935930584</v>
+        <v>0.3311382252029786</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>15</v>
@@ -3401,19 +3401,19 @@
         <v>14321</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>8605</v>
+        <v>8522</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>21686</v>
+        <v>21583</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.173957076678436</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1045215575360742</v>
+        <v>0.1035194389042259</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2634211474162651</v>
+        <v>0.2621731078008193</v>
       </c>
     </row>
     <row r="46">
@@ -3430,19 +3430,19 @@
         <v>7818</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3976</v>
+        <v>3825</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13436</v>
+        <v>13118</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2346977693506905</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1193664147939</v>
+        <v>0.1148196215680411</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.4033333122359573</v>
+        <v>0.3937948721674372</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -3451,19 +3451,19 @@
         <v>4518</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1798</v>
+        <v>1696</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>9147</v>
+        <v>10168</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0921835903943046</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03668452049170678</v>
+        <v>0.03459530586391395</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1866204114835412</v>
+        <v>0.2074576914533448</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>13</v>
@@ -3472,19 +3472,19 @@
         <v>12336</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>6870</v>
+        <v>7426</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>19971</v>
+        <v>19933</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1498504488151793</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.08345230003986091</v>
+        <v>0.09019960610724559</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2425861544335825</v>
+        <v>0.2421308604350181</v>
       </c>
     </row>
     <row r="47">
@@ -3501,19 +3501,19 @@
         <v>12799</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7866</v>
+        <v>8040</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>18795</v>
+        <v>18259</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3842017613205927</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2361283563301741</v>
+        <v>0.2413465017351882</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5642112530473179</v>
+        <v>0.5481109888688576</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>26</v>
@@ -3522,19 +3522,19 @@
         <v>25309</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>18771</v>
+        <v>18573</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>32196</v>
+        <v>31991</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.516370703732954</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3829729654161865</v>
+        <v>0.3789406508093999</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.656887928652059</v>
+        <v>0.6526956968062866</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>40</v>
@@ -3543,19 +3543,19 @@
         <v>38107</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>29879</v>
+        <v>29656</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>47328</v>
+        <v>46867</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4628899360960518</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3629484324119337</v>
+        <v>0.3602303177427729</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5748999209868203</v>
+        <v>0.569293510753857</v>
       </c>
     </row>
     <row r="48">
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5975</v>
+        <v>6340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2009328297325484</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5175638897154974</v>
+        <v>0.5491298686634204</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5297</v>
+        <v>5269</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2138370456239399</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5596740844378025</v>
+        <v>0.5567356225285965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -3933,19 +3933,19 @@
         <v>4344</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9324</v>
+        <v>8861</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2067455555331727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05041682412967196</v>
+        <v>0.05141287411326233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4438191381774971</v>
+        <v>0.4217731492297463</v>
       </c>
     </row>
     <row r="5">
@@ -3962,19 +3962,19 @@
         <v>2432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5768</v>
+        <v>6198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2106418816555566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05481498895128128</v>
+        <v>0.05621429949325387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4996288652731335</v>
+        <v>0.5368764827956393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4863</v>
+        <v>4875</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1394804011030052</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5138262598198984</v>
+        <v>0.5150608889351488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -4004,19 +4004,19 @@
         <v>3752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1216</v>
+        <v>942</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8151</v>
+        <v>8521</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1785870727853497</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05789568766619729</v>
+        <v>0.04484800296733436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3879896687375254</v>
+        <v>0.4056110289979823</v>
       </c>
     </row>
     <row r="6">
@@ -4033,19 +4033,19 @@
         <v>3688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7612</v>
+        <v>8547</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3194400285314311</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07874374829599907</v>
+        <v>0.08042238293640208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6593385216082408</v>
+        <v>0.7403166971740709</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5328</v>
+        <v>5282</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2197876317361368</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5629342555552623</v>
+        <v>0.5580671679405503</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -4075,19 +4075,19 @@
         <v>5768</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2064</v>
+        <v>2104</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11391</v>
+        <v>11267</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2745514384131828</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09823708543929954</v>
+        <v>0.1001262545263076</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5422105155374283</v>
+        <v>0.536299686357782</v>
       </c>
     </row>
     <row r="7">
@@ -4104,19 +4104,19 @@
         <v>3105</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7060</v>
+        <v>6704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.268985260080464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07625331096069639</v>
+        <v>0.0763323823246962</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6115304410257496</v>
+        <v>0.5806899832392262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4125,19 +4125,19 @@
         <v>4040</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>975</v>
+        <v>1018</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7135</v>
+        <v>7317</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.426894921536918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1029897746434403</v>
+        <v>0.1075393944231544</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7539475919116729</v>
+        <v>0.7731616584121822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4146,19 +4146,19 @@
         <v>7145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2982</v>
+        <v>3290</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11845</v>
+        <v>11999</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3401159332682948</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1419577263343469</v>
+        <v>0.1565840297175436</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5638087274629938</v>
+        <v>0.5711319993475479</v>
       </c>
     </row>
     <row r="8">
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5922</v>
+        <v>5825</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2063090717887609</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5799007639419071</v>
+        <v>0.5704395091276545</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -4271,19 +4271,19 @@
         <v>3119</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7562</v>
+        <v>6968</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2121865877560843</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06222960547078112</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5144159161106444</v>
+        <v>0.4740388005802368</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -4292,19 +4292,19 @@
         <v>5226</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1925</v>
+        <v>1937</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10534</v>
+        <v>10979</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2097772972559788</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07727826272625832</v>
+        <v>0.07774184556479606</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4228288257117063</v>
+        <v>0.4406759260574306</v>
       </c>
     </row>
     <row r="10">
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5930</v>
+        <v>6965</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1493046790263036</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4034132300319831</v>
+        <v>0.4738224200327418</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6796</v>
+        <v>7052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08810223452436426</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2727829100727317</v>
+        <v>0.283054355058264</v>
       </c>
     </row>
     <row r="11">
@@ -4384,19 +4384,19 @@
         <v>4168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8309</v>
+        <v>7916</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4081383055947686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1061403748035585</v>
+        <v>0.1077090961850778</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8136505400500043</v>
+        <v>0.7751357894809829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5514</v>
+        <v>5530</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1356241152819659</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3751211758612158</v>
+        <v>0.3761942699136509</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -4426,19 +4426,19 @@
         <v>6162</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2120</v>
+        <v>2096</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12253</v>
+        <v>12349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2473321656751617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08507709706181125</v>
+        <v>0.08413848544660812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4918297957850866</v>
+        <v>0.49570035112891</v>
       </c>
     </row>
     <row r="12">
@@ -4455,19 +4455,19 @@
         <v>3937</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>842</v>
+        <v>930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6989</v>
+        <v>7041</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3855526226164705</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0824560868076078</v>
+        <v>0.09106334315701788</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6844042064997993</v>
+        <v>0.6894436941191999</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4476,19 +4476,19 @@
         <v>7392</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3418</v>
+        <v>3399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11770</v>
+        <v>11836</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5028846179356462</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2324986685571288</v>
+        <v>0.231249632963031</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8006725063243586</v>
+        <v>0.8051644822242567</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -4497,19 +4497,19 @@
         <v>11330</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6179</v>
+        <v>6322</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16856</v>
+        <v>17197</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4547883025444952</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2480178359538409</v>
+        <v>0.25376030951266</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6766138006196465</v>
+        <v>0.6902944483536925</v>
       </c>
     </row>
     <row r="13">
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5963</v>
+        <v>5106</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2193293248411636</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6530709628265737</v>
+        <v>0.5592649033669895</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -4690,19 +4690,19 @@
         <v>4046</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8085</v>
+        <v>8079</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2837392296123337</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0714479207589219</v>
+        <v>0.07203614919474986</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.566899620111839</v>
+        <v>0.5665051287978872</v>
       </c>
     </row>
     <row r="16">
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5130</v>
+        <v>5119</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2225440600243996</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5619372971628733</v>
+        <v>0.5606313956163388</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5852</v>
+        <v>6073</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1424718317333201</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4103776422662253</v>
+        <v>0.4258594717265774</v>
       </c>
     </row>
     <row r="17">
@@ -4803,19 +4803,19 @@
         <v>5096</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2042</v>
+        <v>2106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8113</v>
+        <v>8129</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5581266151344368</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2237038466334592</v>
+        <v>0.2307222428962117</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8886282040725073</v>
+        <v>0.8903946401698067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -4824,19 +4824,19 @@
         <v>8183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4120</v>
+        <v>4088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12183</v>
+        <v>12216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5737889386543462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.288922918547036</v>
+        <v>0.2866783728294314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8543133654400913</v>
+        <v>0.8566050430085664</v>
       </c>
     </row>
     <row r="18">
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3704</v>
+        <v>3775</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1800326187374074</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7744809464217071</v>
+        <v>0.7894341705946336</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5284</v>
+        <v>5316</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2810688214295508</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7023324337589291</v>
+        <v>0.7065974105008788</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -4970,19 +4970,19 @@
         <v>2976</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7104</v>
+        <v>6939</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2418032339478856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06932528666915844</v>
+        <v>0.06946526482635716</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5772760204689636</v>
+        <v>0.5638344106436453</v>
       </c>
     </row>
     <row r="20">
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3911</v>
+        <v>3874</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2221849811505681</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8177637934464694</v>
+        <v>0.8101740817955652</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5316</v>
+        <v>4514</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08634750299417346</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4320047042642654</v>
+        <v>0.3668481248889277</v>
       </c>
     </row>
     <row r="21">
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3853061969717546</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8110757773239355</v>
+        <v>0.8106205614757322</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -5083,19 +5083,19 @@
         <v>3183</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6420</v>
+        <v>5562</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4231684902192108</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1189004269888408</v>
+        <v>0.1191529552643835</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8534333456887258</v>
+        <v>0.739347681957872</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -5104,19 +5104,19 @@
         <v>5026</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9205</v>
+        <v>8293</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4084541091542933</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1612715274378484</v>
+        <v>0.1625947278583722</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.747996209902395</v>
+        <v>0.673933035411544</v>
       </c>
     </row>
     <row r="22">
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2124762031402698</v>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8147636025029443</v>
+        <v>0.8148811334149484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5407</v>
+        <v>5512</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2957626883512384</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7186888444241436</v>
+        <v>0.7326998845727453</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -5175,19 +5175,19 @@
         <v>3241</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7285</v>
+        <v>7291</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2633951539036478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08382031460495751</v>
+        <v>0.08239746179566848</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5919730426137488</v>
+        <v>0.5924418787109635</v>
       </c>
     </row>
     <row r="23">
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4235</v>
+        <v>4203</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1490317045997182</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6008260768128392</v>
+        <v>0.5962398210937745</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4558</v>
+        <v>4902</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08148967774716298</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3535174984331818</v>
+        <v>0.3802139394361433</v>
       </c>
     </row>
     <row r="25">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5103</v>
+        <v>5083</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4824287254910267</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8733807341232562</v>
+        <v>0.8699658874194269</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8088</v>
+        <v>7035</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2186394768755837</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.627351781828541</v>
+        <v>0.5457032173711394</v>
       </c>
     </row>
     <row r="26">
@@ -5405,19 +5405,19 @@
         <v>2830</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5945</v>
+        <v>5935</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4014350608841428</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1234963594035677</v>
+        <v>0.1232983537777974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8433663063986898</v>
+        <v>0.8419838955964941</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4597</v>
+        <v>3597</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1664601261171593</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7866715381747178</v>
+        <v>0.6156166994516695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -5447,19 +5447,19 @@
         <v>3802</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>919</v>
+        <v>968</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7712</v>
+        <v>8318</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2949430671413629</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07129494225367759</v>
+        <v>0.07505961141242352</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5981729271295548</v>
+        <v>0.6452054019937248</v>
       </c>
     </row>
     <row r="27">
@@ -5476,19 +5476,19 @@
         <v>3169</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6042</v>
+        <v>6100</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4495332345161391</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1361638654472569</v>
+        <v>0.1343512808810744</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8570759502708838</v>
+        <v>0.86541261389647</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4723</v>
+        <v>4718</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3511111483918141</v>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8083763159828885</v>
+        <v>0.8075298848319377</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -5518,19 +5518,19 @@
         <v>5220</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1897</v>
+        <v>2007</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8814</v>
+        <v>9803</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4049277782358904</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1471569813331137</v>
+        <v>0.1556464699251231</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.683713029103853</v>
+        <v>0.7603726295592776</v>
       </c>
     </row>
     <row r="28">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3195</v>
+        <v>3266</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2545304889950825</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7693599386182259</v>
+        <v>0.7865081651989604</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5812</v>
+        <v>5783</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2246153276955478</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.623791629691875</v>
+        <v>0.6206411799258484</v>
       </c>
     </row>
     <row r="30">
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4551</v>
+        <v>5051</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1020190329796004</v>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4885099150862645</v>
+        <v>0.5421597658206482</v>
       </c>
     </row>
     <row r="31">
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3195</v>
+        <v>4153</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.254373805027527</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7692506550684183</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4655</v>
+        <v>5489</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1133671805543996</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4996053261331512</v>
+        <v>0.5891257967058656</v>
       </c>
     </row>
     <row r="32">
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4153</v>
+        <v>3217</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2621849270611144</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>1</v>
+        <v>0.7745755366692895</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -5861,19 +5861,19 @@
         <v>5218</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1867</v>
+        <v>2050</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8370</v>
+        <v>8365</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5599984587704523</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2003395770728094</v>
+        <v>0.2200230005128863</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.898313190455615</v>
+        <v>0.897868208494335</v>
       </c>
     </row>
     <row r="33">
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5394</v>
+        <v>5846</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2153467290645028</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5658753042969816</v>
+        <v>0.6132662553308534</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -5986,19 +5986,19 @@
         <v>7219</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3776</v>
+        <v>3131</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11441</v>
+        <v>10680</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4792802693454081</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2507121185950857</v>
+        <v>0.2078480881197723</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7595363831662589</v>
+        <v>0.7090080304876432</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -6007,19 +6007,19 @@
         <v>9272</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4608</v>
+        <v>4053</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14385</v>
+        <v>14386</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3769854899156722</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1873424024228139</v>
+        <v>0.1647785794351237</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5848459129957891</v>
+        <v>0.5848902762297693</v>
       </c>
     </row>
     <row r="35">
@@ -6036,19 +6036,19 @@
         <v>5477</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2316</v>
+        <v>2309</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8577</v>
+        <v>8629</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5745746478820936</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2429337982912562</v>
+        <v>0.2422022621590502</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.899734118587496</v>
+        <v>0.9051682036146202</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4388</v>
+        <v>4330</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07084288337692594</v>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2913404304212874</v>
+        <v>0.28745549118709</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -6078,19 +6078,19 @@
         <v>6544</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2460</v>
+        <v>2365</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12455</v>
+        <v>12890</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2660781296702359</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.100002173137675</v>
+        <v>0.09616672261417687</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5063813797811255</v>
+        <v>0.5240850771859806</v>
       </c>
     </row>
     <row r="36">
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5928</v>
+        <v>5868</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2100786230534037</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6218864708333588</v>
+        <v>0.6155720097300034</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -6128,19 +6128,19 @@
         <v>4363</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8924</v>
+        <v>8761</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2896327595860911</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07226337509228538</v>
+        <v>0.07129209626361317</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.592447926347188</v>
+        <v>0.5816460310401727</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -6149,19 +6149,19 @@
         <v>6365</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2932</v>
+        <v>2291</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11864</v>
+        <v>11135</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2587993428074843</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1192001956590345</v>
+        <v>0.0931381932373066</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4823581361652068</v>
+        <v>0.4527154156742769</v>
       </c>
     </row>
     <row r="37">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6110</v>
+        <v>7149</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1602440876915749</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4056017580365637</v>
+        <v>0.4746229402230289</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7254</v>
+        <v>7472</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09813703760660761</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.294912784878014</v>
+        <v>0.3037699549432536</v>
       </c>
     </row>
     <row r="38">
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6650683184444024</v>
+        <v>0.665053151254768</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -6337,19 +6337,19 @@
         <v>6428</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2376</v>
+        <v>3089</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>11032</v>
+        <v>11001</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.4205134166961182</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1554069525282978</v>
+        <v>0.2020869720652237</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7216487644407242</v>
+        <v>0.71964278937107</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>7</v>
@@ -6358,19 +6358,19 @@
         <v>8457</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4321</v>
+        <v>4282</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>14582</v>
+        <v>13829</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3906445661936668</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1995876621531941</v>
+        <v>0.1977926385933207</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6735111765966353</v>
+        <v>0.6387550171596701</v>
       </c>
     </row>
     <row r="40">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1606069307780529</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6680801079496289</v>
+        <v>0.6682762863592933</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -6408,19 +6408,19 @@
         <v>3342</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1032</v>
+        <v>990</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7660</v>
+        <v>7116</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2186283535990793</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06751313410656917</v>
+        <v>0.06478248333340378</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5011048898136646</v>
+        <v>0.465484347529221</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -6429,19 +6429,19 @@
         <v>4364</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1087</v>
+        <v>1136</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8914</v>
+        <v>9864</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2015743972671635</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05019834918437551</v>
+        <v>0.05245228498131548</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4117357307891008</v>
+        <v>0.4555917022532981</v>
       </c>
     </row>
     <row r="41">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5024</v>
+        <v>4296</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06301738037932056</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3286763681454433</v>
+        <v>0.2810051372960995</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5268</v>
+        <v>4421</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04449498639295315</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2433027970552165</v>
+        <v>0.2041854306868244</v>
       </c>
     </row>
     <row r="42">
@@ -6524,7 +6524,7 @@
         <v>1085</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5408</v>
+        <v>5391</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5205002483835455</v>
@@ -6533,7 +6533,7 @@
         <v>0.1704604416066625</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.849847949236345</v>
+        <v>0.8470447486605627</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -6542,19 +6542,19 @@
         <v>4553</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1189</v>
+        <v>1112</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9160</v>
+        <v>8593</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2978408493254819</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07779066711407318</v>
+        <v>0.07273885177811014</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5992198783847296</v>
+        <v>0.5621279248103784</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7</v>
@@ -6563,19 +6563,19 @@
         <v>7865</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3351</v>
+        <v>3477</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>12762</v>
+        <v>12817</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3632860501462166</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.154786935851684</v>
+        <v>0.1605961824362226</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5894698615469856</v>
+        <v>0.5920263071517387</v>
       </c>
     </row>
     <row r="43">
@@ -6667,19 +6667,19 @@
         <v>11456</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1916361606190051</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>20</v>
@@ -6688,19 +6688,19 @@
         <v>21962</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2705951630438409</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>31</v>
@@ -6709,19 +6709,19 @@
         <v>33418</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2371044853565009</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
     </row>
     <row r="45">
@@ -6738,19 +6738,19 @@
         <v>12038</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>6142</v>
+        <v>6643</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>20992</v>
+        <v>20326</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2013614805036091</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1027388711361396</v>
+        <v>0.1111163000117257</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3511463788282029</v>
+        <v>0.3400026821494214</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>12</v>
@@ -6759,19 +6759,19 @@
         <v>13696</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>7407</v>
+        <v>7752</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>21578</v>
+        <v>23601</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1687459166457902</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.09126334073806378</v>
+        <v>0.09551827591261187</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2658615296898084</v>
+        <v>0.2907900810602665</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>23</v>
@@ -6780,19 +6780,19 @@
         <v>25733</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>15757</v>
+        <v>17421</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>35452</v>
+        <v>36812</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1825798976132282</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1117986805110251</v>
+        <v>0.1236036437059721</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2515336523254374</v>
+        <v>0.2611863402213895</v>
       </c>
     </row>
     <row r="46">
@@ -6809,19 +6809,19 @@
         <v>14531</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8632</v>
+        <v>8263</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23382</v>
+        <v>22828</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2430720952674582</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1443955488283878</v>
+        <v>0.1382132963373464</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3911287456569332</v>
+        <v>0.3818475070601625</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -6830,19 +6830,19 @@
         <v>16644</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>10061</v>
+        <v>10317</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>25113</v>
+        <v>24967</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2050718790851661</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1239666462973481</v>
+        <v>0.1271215994720374</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3094135783742408</v>
+        <v>0.3076231626781035</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>29</v>
@@ -6851,19 +6851,19 @@
         <v>31175</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>22050</v>
+        <v>21552</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>42500</v>
+        <v>41394</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2211897751214271</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1564454232484497</v>
+        <v>0.1529097803214305</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3015390627752443</v>
+        <v>0.293693631342288</v>
       </c>
     </row>
     <row r="47">
@@ -6880,19 +6880,19 @@
         <v>21756</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>14499</v>
+        <v>14675</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>30125</v>
+        <v>29132</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3639302636099276</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2425261498991175</v>
+        <v>0.2454722081250846</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5039156645964727</v>
+        <v>0.4873113167141803</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>26</v>
@@ -6901,19 +6901,19 @@
         <v>28860</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>20504</v>
+        <v>20494</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>38034</v>
+        <v>38066</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3555870412252027</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2526362011552905</v>
+        <v>0.2525013051844198</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4686184580266811</v>
+        <v>0.4690087097683295</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>46</v>
@@ -6922,19 +6922,19 @@
         <v>50616</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>38675</v>
+        <v>40024</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>61951</v>
+        <v>63457</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3591258419088438</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2743995213441205</v>
+        <v>0.2839718456373725</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4395441361941764</v>
+        <v>0.4502306160816868</v>
       </c>
     </row>
     <row r="48">
@@ -7283,19 +7283,19 @@
         <v>2738</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4674</v>
+        <v>4693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4868723224698797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1526700101076681</v>
+        <v>0.1534444519970427</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8310086363271321</v>
+        <v>0.8344302300247399</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -7304,19 +7304,19 @@
         <v>2738</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6523</v>
+        <v>5924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2692769276261314</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08148970241083134</v>
+        <v>0.07986946424440114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6414966983471944</v>
+        <v>0.5826023530204754</v>
       </c>
     </row>
     <row r="5">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3904</v>
+        <v>3885</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1813471685357247</v>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6941532783340754</v>
+        <v>0.6908130837272149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5617</v>
+        <v>5299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1981055063918547</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5524658763014807</v>
+        <v>0.5211013669270076</v>
       </c>
     </row>
     <row r="6">
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4678</v>
+        <v>4682</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3317805089943956</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8318672195204515</v>
+        <v>0.8325776326393038</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -7446,19 +7446,19 @@
         <v>4063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>949</v>
+        <v>996</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7337</v>
+        <v>7271</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3996261208301313</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09333870498803297</v>
+        <v>0.09799090201043606</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7215702522265447</v>
+        <v>0.7151347690237841</v>
       </c>
     </row>
     <row r="7">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5804</v>
+        <v>5824</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1329914451518825</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5707722206592295</v>
+        <v>0.572737597499108</v>
       </c>
     </row>
     <row r="8">
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4493</v>
+        <v>5564</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3383318039621352</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6761220779370136</v>
+        <v>0.8372769870184055</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6975</v>
+        <v>6898</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1573276871709059</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4880752843106098</v>
+        <v>0.4827091501385384</v>
       </c>
     </row>
     <row r="10">
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4489</v>
+        <v>4480</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1703571583067725</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6756062930003164</v>
+        <v>0.6741360507968194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -7697,19 +7697,19 @@
         <v>3590</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6436</v>
+        <v>6443</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4695833477195559</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1264147798614176</v>
+        <v>0.1296106456355209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.84172508423454</v>
+        <v>0.8426056606392308</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -7718,19 +7718,19 @@
         <v>4722</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1167</v>
+        <v>1423</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9400</v>
+        <v>9360</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.330440164105209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08168869465594608</v>
+        <v>0.09953888961471187</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6577903637258609</v>
+        <v>0.6549830777659407</v>
       </c>
     </row>
     <row r="11">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4396</v>
+        <v>4356</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1623605690601793</v>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6615977690004414</v>
+        <v>0.6554623461357457</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5583</v>
+        <v>5745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2140683964594126</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7302214195724389</v>
+        <v>0.7514229163682292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7198</v>
+        <v>7622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1900237373464188</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5036564555561726</v>
+        <v>0.5333554024061772</v>
       </c>
     </row>
     <row r="12">
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5495</v>
+        <v>5528</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3289504686709129</v>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8269085818201651</v>
+        <v>0.8319745156865037</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -7842,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5998</v>
+        <v>5561</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3163482558210315</v>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7844581135991799</v>
+        <v>0.7273002732048629</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -7860,19 +7860,19 @@
         <v>4605</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9428</v>
+        <v>9381</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3222084113774663</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07746815357565009</v>
+        <v>0.07836461688387372</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6597137936884705</v>
+        <v>0.6564401036280368</v>
       </c>
     </row>
     <row r="13">
@@ -7977,19 +7977,19 @@
         <v>2970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5991</v>
+        <v>6009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4213168011993889</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1331038624975613</v>
+        <v>0.1302767378510003</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8498297970732641</v>
+        <v>0.8523777116345709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -7998,19 +7998,19 @@
         <v>2970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6100</v>
+        <v>6083</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.334537741906446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1043380031901938</v>
+        <v>0.1027775235503518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6871071194208105</v>
+        <v>0.6852177782161558</v>
       </c>
     </row>
     <row r="15">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4062</v>
+        <v>3852</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1278916660829012</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5762407559972709</v>
+        <v>0.5463264165923081</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4760</v>
+        <v>4733</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1989934654734185</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5361869084778762</v>
+        <v>0.5331333778645222</v>
       </c>
     </row>
     <row r="16">
@@ -8166,19 +8166,19 @@
         <v>3178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6023</v>
+        <v>6128</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4507915327177099</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1430126138811851</v>
+        <v>0.1416328018671684</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8543347420408732</v>
+        <v>0.8692284510170651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -8187,19 +8187,19 @@
         <v>4141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1052</v>
+        <v>1022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7054</v>
+        <v>7101</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4664687926201355</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1185439613543459</v>
+        <v>0.115090954282684</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7945920083056571</v>
+        <v>0.7998722726450268</v>
       </c>
     </row>
     <row r="18">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4143</v>
+        <v>4559</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1147038584383554</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4963685295521578</v>
+        <v>0.5461560371840906</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8312,19 +8312,19 @@
         <v>3126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>853</v>
+        <v>894</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7110</v>
+        <v>7390</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2812220940697117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07671066202998568</v>
+        <v>0.08038885374603238</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.63961900003035</v>
+        <v>0.6647791573945029</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -8333,19 +8333,19 @@
         <v>4083</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8643</v>
+        <v>8560</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2098076793363324</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05224514417974141</v>
+        <v>0.0515815295384858</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4440780010051947</v>
+        <v>0.4397964194451879</v>
       </c>
     </row>
     <row r="20">
@@ -8362,19 +8362,19 @@
         <v>4660</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1685</v>
+        <v>2141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7476</v>
+        <v>7449</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.558279006319825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2018649521775728</v>
+        <v>0.2564635351598131</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8956341825305795</v>
+        <v>0.892419727380262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5692</v>
+        <v>6727</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1915580200356408</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5120634906769527</v>
+        <v>0.6051308302075808</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -8404,19 +8404,19 @@
         <v>6789</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2984</v>
+        <v>2419</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12393</v>
+        <v>11895</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3488330746663606</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1533355123330542</v>
+        <v>0.1242798907009971</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6367536892860333</v>
+        <v>0.6111477724733595</v>
       </c>
     </row>
     <row r="21">
@@ -8433,19 +8433,19 @@
         <v>2730</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6059</v>
+        <v>6063</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3270171352418197</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08502925332198381</v>
+        <v>0.08399504120773336</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7258664287083734</v>
+        <v>0.7264233588860824</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1343422077908208</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5278960292321933</v>
+        <v>0.5279633819994816</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -8475,19 +8475,19 @@
         <v>4223</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1411</v>
+        <v>1002</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9974</v>
+        <v>9332</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2169744019498512</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07250136539433415</v>
+        <v>0.05148950755820832</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5124704824939738</v>
+        <v>0.4794940165281594</v>
       </c>
     </row>
     <row r="22">
@@ -8517,19 +8517,19 @@
         <v>4367</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1174</v>
+        <v>1192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8128</v>
+        <v>8410</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3928776781038266</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1056242688107373</v>
+        <v>0.1072204722844471</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7312145291934656</v>
+        <v>0.75658111749278</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -8538,19 +8538,19 @@
         <v>4367</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1109</v>
+        <v>1160</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10156</v>
+        <v>10929</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2243848440474558</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05698180768464273</v>
+        <v>0.05958097127380797</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5218136199771343</v>
+        <v>0.5615287917654582</v>
       </c>
     </row>
     <row r="23">
@@ -8684,19 +8684,19 @@
         <v>2916</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5749</v>
+        <v>5768</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4333043936082194</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1391407780983682</v>
+        <v>0.1387668083148277</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8542268986112816</v>
+        <v>0.8571078708174821</v>
       </c>
     </row>
     <row r="25">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3773</v>
+        <v>3761</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1860059981668667</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7902385672472977</v>
+        <v>0.7877657941867721</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3916</v>
+        <v>3715</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1319484226187097</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5818956372178243</v>
+        <v>0.552017680968491</v>
       </c>
     </row>
     <row r="27">
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4085827516271835</v>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8159914233618532</v>
+        <v>0.8158032887591566</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -8865,7 +8865,7 @@
         <v>2926</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>5796</v>
@@ -8874,10 +8874,10 @@
         <v>0.434747183773071</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1432860911796257</v>
+        <v>0.1419447323883804</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8612312749629562</v>
+        <v>0.8612331437470854</v>
       </c>
     </row>
     <row r="28">
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4532</v>
+        <v>4527</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1253324439621608</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5665890343614319</v>
+        <v>0.5660351894879555</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5198</v>
+        <v>4681</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0791915203906559</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4105813461012732</v>
+        <v>0.3697547617188326</v>
       </c>
     </row>
     <row r="30">
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3880</v>
+        <v>4660</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.396455719299343</v>
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8325312468892826</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3597</v>
+        <v>4565</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.129505820122503</v>
@@ -9065,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4497406670907486</v>
+        <v>0.5707189248058452</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -9074,19 +9074,19 @@
         <v>2884</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6646</v>
+        <v>6503</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2277829661347378</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06149837060401451</v>
+        <v>0.055981568801634</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5249752787505588</v>
+        <v>0.5136699859568323</v>
       </c>
     </row>
     <row r="31">
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3905</v>
+        <v>3717</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2221860051665097</v>
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8379298749423388</v>
+        <v>0.7976812489662686</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4318</v>
+        <v>4563</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08179739546243159</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3410824901706392</v>
+        <v>0.3604390399491585</v>
       </c>
     </row>
     <row r="32">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3837</v>
+        <v>3864</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3813582755341473</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8233579279624876</v>
+        <v>0.8290928302510006</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -9187,7 +9187,7 @@
         <v>5960</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2546</v>
+        <v>2454</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>7998</v>
@@ -9196,7 +9196,7 @@
         <v>0.7451617359153362</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.318355660545304</v>
+        <v>0.3068258364462056</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -9208,19 +9208,19 @@
         <v>7738</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3821</v>
+        <v>3616</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10875</v>
+        <v>10917</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6112281180121747</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3018669285547182</v>
+        <v>0.2856512395754649</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.859077894598689</v>
+        <v>0.8623948199423745</v>
       </c>
     </row>
     <row r="33">
@@ -9312,19 +9312,19 @@
         <v>4130</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1142</v>
+        <v>1070</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7712</v>
+        <v>7650</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4653566353433729</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1286727321641552</v>
+        <v>0.12051549543264</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8689511644375564</v>
+        <v>0.8619368175253074</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -9333,19 +9333,19 @@
         <v>2958</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>791</v>
+        <v>856</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6504</v>
+        <v>6789</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2693835360616786</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07203503908329298</v>
+        <v>0.07793050794253924</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5923107489016097</v>
+        <v>0.6182617892071038</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -9354,19 +9354,19 @@
         <v>7088</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2922</v>
+        <v>3126</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12000</v>
+        <v>12707</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3569821993282728</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1471856939710777</v>
+        <v>0.1574175142196244</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6043863310081348</v>
+        <v>0.6399808280152843</v>
       </c>
     </row>
     <row r="35">
@@ -9396,19 +9396,19 @@
         <v>4104</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8367</v>
+        <v>7655</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3737815774903995</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1157974701118086</v>
+        <v>0.1142687570364593</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.7620148968827638</v>
+        <v>0.6972122557761382</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -9417,19 +9417,19 @@
         <v>4104</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1140</v>
+        <v>1205</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9433</v>
+        <v>9678</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2067037149579863</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05740818755281887</v>
+        <v>0.06070331607337351</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4750882588410431</v>
+        <v>0.4874481434259091</v>
       </c>
     </row>
     <row r="36">
@@ -9446,19 +9446,19 @@
         <v>3698</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6738</v>
+        <v>7072</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4167212345325408</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1077528501233032</v>
+        <v>0.1048674387857896</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7592256092963148</v>
+        <v>0.7968368741453827</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -9467,19 +9467,19 @@
         <v>2812</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>809</v>
+        <v>760</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7032</v>
+        <v>6797</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2561102709736564</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07371126015471355</v>
+        <v>0.0692237081721776</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6404617048321966</v>
+        <v>0.6190265519500309</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -9488,19 +9488,19 @@
         <v>6511</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2329</v>
+        <v>2456</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11768</v>
+        <v>11337</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3279022963347216</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1172849796324255</v>
+        <v>0.1236827374328584</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5927003335536098</v>
+        <v>0.570974536185643</v>
       </c>
     </row>
     <row r="37">
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5000</v>
+        <v>3752</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1179221301240863</v>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5633908608955241</v>
+        <v>0.4227605230912438</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4638</v>
+        <v>4669</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1007246154742656</v>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.42241112815598</v>
+        <v>0.4251906247104614</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6980</v>
+        <v>6247</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1084117893790194</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3515253208597534</v>
+        <v>0.3146514574187229</v>
       </c>
     </row>
     <row r="38">
@@ -9666,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5803</v>
+        <v>5842</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1612681329908077</v>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5001215978201872</v>
+        <v>0.5035308002610518</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5675</v>
+        <v>5645</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2847360451135278</v>
@@ -9696,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7201462883305784</v>
+        <v>0.716346916853554</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -9705,19 +9705,19 @@
         <v>4115</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1058</v>
+        <v>1130</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>8397</v>
+        <v>9277</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2112023757984564</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05430907719884909</v>
+        <v>0.05799877901665475</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4309992887332335</v>
+        <v>0.476153439736888</v>
       </c>
     </row>
     <row r="40">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6187</v>
+        <v>6109</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2099307339192424</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5332594737971357</v>
+        <v>0.5265265329936653</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -9755,19 +9755,19 @@
         <v>3392</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6608</v>
+        <v>6781</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4304800856211885</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1266785235232004</v>
+        <v>0.1278151178556514</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8385485812174058</v>
+        <v>0.8605194470739732</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -9776,19 +9776,19 @@
         <v>5828</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2246</v>
+        <v>2351</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10517</v>
+        <v>10307</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2991277138439391</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1153016997993219</v>
+        <v>0.120672744820383</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5398069613214785</v>
+        <v>0.5290071498017633</v>
       </c>
     </row>
     <row r="41">
@@ -9805,19 +9805,19 @@
         <v>5178</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1941</v>
+        <v>1916</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8519</v>
+        <v>8416</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4462459509958564</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1672412775239791</v>
+        <v>0.1651719583410244</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7342367199298536</v>
+        <v>0.72537174731204</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -9839,19 +9839,19 @@
         <v>5178</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2007</v>
+        <v>1891</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9723</v>
+        <v>9630</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2657702850041193</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1030190572725982</v>
+        <v>0.09704979583147308</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4990378376996902</v>
+        <v>0.4942670698986306</v>
       </c>
     </row>
     <row r="42">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5995</v>
+        <v>6067</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1825551820940934</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5166789965625059</v>
+        <v>0.5228675702705181</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>5710</v>
+        <v>5694</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2847838692652837</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7246242094721902</v>
+        <v>0.7225303082399928</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4</v>
@@ -9910,19 +9910,19 @@
         <v>4362</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1134</v>
+        <v>1170</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>8857</v>
+        <v>9055</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2238996253534852</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05819479027732385</v>
+        <v>0.06006974823881337</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4545902215927701</v>
+        <v>0.4647602432772395</v>
       </c>
     </row>
     <row r="43">
@@ -10014,19 +10014,19 @@
         <v>11143</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2172964112123894</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>16</v>
@@ -10035,19 +10035,19 @@
         <v>16019</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2658760691545864</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>26</v>
@@ -10056,19 +10056,19 @@
         <v>27161</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2435398874559074</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
     </row>
     <row r="45">
@@ -10085,19 +10085,19 @@
         <v>11935</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>6304</v>
+        <v>6613</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>18412</v>
+        <v>19200</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.23275448846921</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1229440762911188</v>
+        <v>0.1289615671436667</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3590606284697368</v>
+        <v>0.3744344376262063</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>14</v>
@@ -10106,19 +10106,19 @@
         <v>16173</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>9840</v>
+        <v>9176</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>23857</v>
+        <v>24439</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2684369287759531</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1633327660682641</v>
+        <v>0.1523084286620429</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3959838822041974</v>
+        <v>0.4056449623830334</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>25</v>
@@ -10127,19 +10127,19 @@
         <v>28108</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>18972</v>
+        <v>19033</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>39416</v>
+        <v>37695</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2520306899528635</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1701070923579905</v>
+        <v>0.1706562993984858</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3534227672544126</v>
+        <v>0.3379896443118315</v>
       </c>
     </row>
     <row r="46">
@@ -10156,19 +10156,19 @@
         <v>16806</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>10344</v>
+        <v>11003</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23899</v>
+        <v>24480</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3277412144159592</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2017311679717394</v>
+        <v>0.2145784971320333</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.4660652107263029</v>
+        <v>0.4774061113641611</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -10177,19 +10177,19 @@
         <v>7808</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3685</v>
+        <v>3349</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>14784</v>
+        <v>14330</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1295947119649372</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06117203124708093</v>
+        <v>0.0555911974146631</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2453861725676109</v>
+        <v>0.2378581348709499</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>23</v>
@@ -10198,19 +10198,19 @@
         <v>24614</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>16575</v>
+        <v>16743</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>34344</v>
+        <v>34628</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2206994349946858</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.148620151021357</v>
+        <v>0.1501227713356597</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3079444143033644</v>
+        <v>0.3104927979965185</v>
       </c>
     </row>
     <row r="47">
@@ -10227,19 +10227,19 @@
         <v>11394</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6244</v>
+        <v>6729</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>18263</v>
+        <v>19019</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2222078859024415</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1217616446266111</v>
+        <v>0.1312187417655112</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3561632901393209</v>
+        <v>0.3708904150432137</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>17</v>
@@ -10248,19 +10248,19 @@
         <v>20249</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>12876</v>
+        <v>13473</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>29529</v>
+        <v>29510</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3360922901045232</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2137159796555611</v>
+        <v>0.2236271009900762</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4901169203267113</v>
+        <v>0.4898009245130661</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>28</v>
@@ -10269,19 +10269,19 @@
         <v>31644</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>22572</v>
+        <v>21908</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>42915</v>
+        <v>43130</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2837299875965433</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.202393983081814</v>
+        <v>0.1964343607774975</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3847918042513971</v>
+        <v>0.3867246231885978</v>
       </c>
     </row>
     <row r="48">
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2064</v>
+        <v>1966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1598985923944961</v>
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6898154596593927</v>
+        <v>0.6570804823641514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3886</v>
+        <v>3867</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3272713372669885</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7568758097859043</v>
+        <v>0.753283569473376</v>
       </c>
     </row>
     <row r="5">
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3411</v>
+        <v>3135</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1830566688245692</v>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.664349062835953</v>
+        <v>0.6106455140463201</v>
       </c>
     </row>
     <row r="6">
@@ -10767,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2453</v>
+        <v>2479</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3291642939890975</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8197597886693897</v>
+        <v>0.8285775467275495</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2755</v>
+        <v>2877</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1918608095426431</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5366547540581967</v>
+        <v>0.5604587944830066</v>
       </c>
     </row>
     <row r="7">
@@ -10827,7 +10827,7 @@
         <v>1529</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>488</v>
+        <v>350</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>2533</v>
@@ -10836,10 +10836,10 @@
         <v>0.5109371136164065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1630739931086657</v>
+        <v>0.1169675547883574</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8464426510853964</v>
+        <v>0.8464447955921156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -10848,19 +10848,19 @@
         <v>1529</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3508</v>
+        <v>3536</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.297811184365799</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07408018864684361</v>
+        <v>0.06870528658983056</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6832846602312499</v>
+        <v>0.6887687250869433</v>
       </c>
     </row>
     <row r="8">
@@ -10952,19 +10952,19 @@
         <v>3716</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>138</v>
+        <v>870</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8099</v>
+        <v>8506</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2404784954423406</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008949931634183813</v>
+        <v>0.0563010297809905</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5241510170250132</v>
+        <v>0.5504971511232321</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3371</v>
+        <v>3457</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1421708760639914</v>
@@ -10985,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5142947841368035</v>
+        <v>0.5275362439191488</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -10994,19 +10994,19 @@
         <v>4647</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1224</v>
+        <v>1005</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9912</v>
+        <v>9860</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2111976461834481</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05561573974166512</v>
+        <v>0.04567402501792397</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.450459052656852</v>
+        <v>0.4481006333175571</v>
       </c>
     </row>
     <row r="10">
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0783904636326087</v>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3490628783122166</v>
+        <v>0.3486943017563783</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2862</v>
+        <v>3218</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02334853965008761</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1300792399470179</v>
+        <v>0.1462397155686675</v>
       </c>
     </row>
     <row r="11">
@@ -11086,19 +11086,19 @@
         <v>3418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9157</v>
+        <v>9392</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2212188838163472</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0</v>
+        <v>0.06107795015494487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5926171552087112</v>
+        <v>0.6078835857831411</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -11107,19 +11107,19 @@
         <v>1817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4089</v>
+        <v>4057</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2772350986297333</v>
+        <v>0.2772350986297332</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08073247974055391</v>
+        <v>0.08276296987459331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6239536101849902</v>
+        <v>0.6190021578471968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -11128,19 +11128,19 @@
         <v>5235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1895</v>
+        <v>1915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12131</v>
+        <v>11660</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2379032705645603</v>
+        <v>0.2379032705645602</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08611011708757202</v>
+        <v>0.08704517524957404</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5513047744054368</v>
+        <v>0.5298634627064245</v>
       </c>
     </row>
     <row r="12">
@@ -11157,19 +11157,19 @@
         <v>8317</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3452</v>
+        <v>3663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12938</v>
+        <v>12965</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5383026207413121</v>
+        <v>0.5383026207413122</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2234153881301586</v>
+        <v>0.2370906575907826</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8373370719699184</v>
+        <v>0.8391266678393443</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -11178,19 +11178,19 @@
         <v>3291</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1283</v>
+        <v>1257</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5357</v>
+        <v>5363</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5022035616736668</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1957554968444651</v>
+        <v>0.1918133227806345</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8173898094159764</v>
+        <v>0.8182753216379274</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -11199,19 +11199,19 @@
         <v>11609</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6688</v>
+        <v>6779</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16551</v>
+        <v>16387</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5275505436019041</v>
+        <v>0.527550543601904</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3039343808526137</v>
+        <v>0.3080566313590683</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7521613566116178</v>
+        <v>0.7446867082608075</v>
       </c>
     </row>
     <row r="13">
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4095</v>
+        <v>4487</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1993848232958291</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5322451971361806</v>
+        <v>0.5832650999345813</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2991</v>
+        <v>3149</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1736192042163445</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.530804411746827</v>
+        <v>0.5587608415610087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -11345,19 +11345,19 @@
         <v>2512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5588</v>
+        <v>5636</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1884915451820151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06174878516798182</v>
+        <v>0.06017956519297821</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4192775861410665</v>
+        <v>0.4228866055072409</v>
       </c>
     </row>
     <row r="15">
@@ -11374,19 +11374,19 @@
         <v>2160</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4352</v>
+        <v>4408</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2807498662172122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07231158317956901</v>
+        <v>0.07050031227284428</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5657291975460143</v>
+        <v>0.5730174939881181</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -11398,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3271</v>
+        <v>3390</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1944204575348465</v>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.580504974385735</v>
+        <v>0.6016398010377623</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -11416,19 +11416,19 @@
         <v>3255</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6165</v>
+        <v>6062</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2442512183377634</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1095936457911464</v>
+        <v>0.1080800455206358</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4625992077538069</v>
+        <v>0.4548484741423085</v>
       </c>
     </row>
     <row r="16">
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4811</v>
+        <v>4356</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2306111841240105</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6254119175077927</v>
+        <v>0.5662317417212671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3268</v>
+        <v>3395</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2124503698506919</v>
@@ -11478,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5800219586674136</v>
+        <v>0.6025427131813396</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -11487,19 +11487,19 @@
         <v>2971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6113</v>
+        <v>6407</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2229330918553057</v>
+        <v>0.2229330918553058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06662226639101565</v>
+        <v>0.06696660005703453</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4587033753471412</v>
+        <v>0.4807865884243495</v>
       </c>
     </row>
     <row r="17">
@@ -11516,19 +11516,19 @@
         <v>2225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4721</v>
+        <v>4797</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2892541263629483</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08630783964109587</v>
+        <v>0.08484858329920635</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6136437750303073</v>
+        <v>0.6235169718315348</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -11537,19 +11537,19 @@
         <v>2364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4161</v>
+        <v>4269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4195099683981172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1098464789566232</v>
+        <v>0.1072271553931545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7384591659029544</v>
+        <v>0.757512845612792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -11558,19 +11558,19 @@
         <v>4589</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1899</v>
+        <v>2057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7442</v>
+        <v>7538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3443241446249156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1424967702318688</v>
+        <v>0.1543827983049972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5583915195641703</v>
+        <v>0.5656383817658572</v>
       </c>
     </row>
     <row r="18">
@@ -11662,19 +11662,19 @@
         <v>5706</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1823</v>
+        <v>1870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9009</v>
+        <v>8907</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.530599853926713</v>
+        <v>0.5305998539267129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1695034120571999</v>
+        <v>0.1739260275711864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.837763515429702</v>
+        <v>0.8282238946856555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -11683,19 +11683,19 @@
         <v>1601</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4485</v>
+        <v>3995</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2250967108332629</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05325921050716705</v>
+        <v>0.04792464944872975</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6307620446682363</v>
+        <v>0.5618225317531105</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -11704,19 +11704,19 @@
         <v>7307</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3447</v>
+        <v>3558</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11724</v>
+        <v>11482</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4089929465701115</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1929262140531607</v>
+        <v>0.1991706713734394</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6562362283452126</v>
+        <v>0.6427262442288277</v>
       </c>
     </row>
     <row r="20">
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5079</v>
+        <v>4981</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0999392513221925</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4723005969365659</v>
+        <v>0.4631466011283263</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -11754,19 +11754,19 @@
         <v>1571</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3882</v>
+        <v>3955</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2208906573815549</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0</v>
+        <v>0.04999540184269809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5458634456048226</v>
+        <v>0.5562469686425235</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -11775,19 +11775,19 @@
         <v>2646</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6872</v>
+        <v>6154</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1480845053525656</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03634686591752132</v>
+        <v>0.03415382656124558</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3846652123705644</v>
+        <v>0.3444499417137075</v>
       </c>
     </row>
     <row r="21">
@@ -11804,19 +11804,19 @@
         <v>1761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>164</v>
+        <v>473</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4729</v>
+        <v>4838</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.163754138894916</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01527869616882876</v>
+        <v>0.04397852755261384</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4397067574942645</v>
+        <v>0.4498762796454496</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -11828,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2991</v>
+        <v>3161</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1361970397413399</v>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4206241142111825</v>
+        <v>0.4445616467566656</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -11846,19 +11846,19 @@
         <v>2730</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6239</v>
+        <v>5676</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.152784910985007</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05234640083321224</v>
+        <v>0.05182126436382761</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3492487063935635</v>
+        <v>0.3177081535654767</v>
       </c>
     </row>
     <row r="22">
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7056</v>
+        <v>6445</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2057067558561785</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6561111321303467</v>
+        <v>0.5993048390204007</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -11896,19 +11896,19 @@
         <v>2971</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5672</v>
+        <v>5627</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4178155920438423</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08087492588301209</v>
+        <v>0.07828008005463223</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7976482410527324</v>
+        <v>0.7912940747473701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -11917,19 +11917,19 @@
         <v>5183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1666</v>
+        <v>1761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9873</v>
+        <v>10310</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2901376370923161</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09328123101453818</v>
+        <v>0.09859311670439572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5526661249345352</v>
+        <v>0.5770917093487277</v>
       </c>
     </row>
     <row r="23">
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1926</v>
+        <v>2157</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.249519721634812</v>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7867100473384044</v>
+        <v>0.8811769281448061</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -12066,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2573</v>
+        <v>2619</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2730675867949856</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.706195520675946</v>
+        <v>0.7189129798147035</v>
       </c>
     </row>
     <row r="25">
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2732</v>
+        <v>2687</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2825502460203179</v>
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7498761613674124</v>
+        <v>0.7374696210950097</v>
       </c>
     </row>
     <row r="26">
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1736</v>
+        <v>2448</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2029466248550309</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7093063061920951</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2107</v>
+        <v>2211</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1363522621603755</v>
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5783670767469823</v>
+        <v>0.6067903242851425</v>
       </c>
     </row>
     <row r="27">
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2448</v>
+        <v>1974</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2820327736352837</v>
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1</v>
+        <v>0.8065415350647043</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2755</v>
+        <v>2744</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3080299050243209</v>
@@ -12280,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7563213809687984</v>
+        <v>0.7531472732762439</v>
       </c>
     </row>
     <row r="28">
@@ -12372,19 +12372,19 @@
         <v>3228</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1429</v>
+        <v>1508</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5151</v>
+        <v>4798</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5289579376172919</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2342096505992186</v>
+        <v>0.2471046685786516</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.844012945844597</v>
+        <v>0.7862226969396792</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1605</v>
+        <v>2141</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1052281689056849</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4844664253931674</v>
+        <v>0.6461924799074739</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -12414,19 +12414,19 @@
         <v>3577</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1641</v>
+        <v>1795</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6076</v>
+        <v>6111</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3798613916906806</v>
+        <v>0.3798613916906808</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1742343643719352</v>
+        <v>0.1905860375450207</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6453304868644415</v>
+        <v>0.6489612853536856</v>
       </c>
     </row>
     <row r="30">
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3007</v>
+        <v>2849</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1645743402080838</v>
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4926599104848983</v>
+        <v>0.4667654800573804</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -12464,19 +12464,19 @@
         <v>2201</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3048</v>
+        <v>3039</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6643109783791691</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2460572249241465</v>
+        <v>0.2397512505985044</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9201005804769049</v>
+        <v>0.9174242574128806</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -12485,19 +12485,19 @@
         <v>3205</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1194</v>
+        <v>1126</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5666</v>
+        <v>5578</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.340415199468073</v>
+        <v>0.3404151994680731</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1267704345536994</v>
+        <v>0.119535148979826</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6017301421598513</v>
+        <v>0.5924438948798795</v>
       </c>
     </row>
     <row r="31">
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2818</v>
+        <v>2975</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1483721517247729</v>
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4617579369504791</v>
+        <v>0.48747506458639</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -12551,16 +12551,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2823</v>
+        <v>2966</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.0961648796203696</v>
+        <v>0.09616487962036964</v>
       </c>
       <c r="V31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2997604992527569</v>
+        <v>0.3150289564041086</v>
       </c>
     </row>
     <row r="32">
@@ -12580,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2978</v>
+        <v>2573</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1580955704498515</v>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4879731265855485</v>
+        <v>0.4215716005316883</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2377</v>
+        <v>2056</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.230460852715146</v>
@@ -12610,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7174295838043079</v>
+        <v>0.620498469550362</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -12619,19 +12619,19 @@
         <v>1728</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3886</v>
+        <v>3740</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1835585292208766</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04834717879428019</v>
+        <v>0.04582195621183615</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4127175687531154</v>
+        <v>0.397190154913825</v>
       </c>
     </row>
     <row r="33">
@@ -12726,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4639</v>
+        <v>4498</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1192744081033612</v>
@@ -12735,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4976793639584394</v>
+        <v>0.4824762757333881</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -12744,19 +12744,19 @@
         <v>5550</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9651</v>
+        <v>9367</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2871343541978061</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1428020666710912</v>
+        <v>0.1427123577882856</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4992994963321107</v>
+        <v>0.4846070447513569</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -12765,19 +12765,19 @@
         <v>6662</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3544</v>
+        <v>3449</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11447</v>
+        <v>11096</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2325173137785414</v>
+        <v>0.2325173137785415</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1236808480776075</v>
+        <v>0.1203611345462479</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3995105998962371</v>
+        <v>0.3872515918362969</v>
       </c>
     </row>
     <row r="35">
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4653</v>
+        <v>4651</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09066690152432179</v>
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4991255206830715</v>
+        <v>0.4988988590696447</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -12815,19 +12815,19 @@
         <v>4824</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2075</v>
+        <v>2033</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8425</v>
+        <v>8326</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2495671916307474</v>
+        <v>0.2495671916307475</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1073448268108191</v>
+        <v>0.1051870698719266</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4358758730773372</v>
+        <v>0.4307478062309428</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -12836,19 +12836,19 @@
         <v>5669</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2765</v>
+        <v>2754</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10614</v>
+        <v>10059</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1978653784865174</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09648650892420178</v>
+        <v>0.09611693068306607</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3704321237227118</v>
+        <v>0.3510811189032084</v>
       </c>
     </row>
     <row r="36">
@@ -12865,19 +12865,19 @@
         <v>4204</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1631</v>
+        <v>1126</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7449</v>
+        <v>7378</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4509786367867464</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1749847718049163</v>
+        <v>0.1207707913772522</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7990976231383472</v>
+        <v>0.7914368862503227</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -12889,16 +12889,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3811</v>
+        <v>4476</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.04877456288025045</v>
+        <v>0.04877456288025046</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.197139386245673</v>
+        <v>0.2315570843361928</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -12907,19 +12907,19 @@
         <v>5147</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9865</v>
+        <v>9927</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1796407800598053</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06956910143030029</v>
+        <v>0.07118621310973706</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3443048314416625</v>
+        <v>0.346484258511313</v>
       </c>
     </row>
     <row r="37">
@@ -12936,19 +12936,19 @@
         <v>3161</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6480</v>
+        <v>6450</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3390800535855705</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09042111101527082</v>
+        <v>0.09049752295857551</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6951543079443133</v>
+        <v>0.691896510434013</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -12957,19 +12957,19 @@
         <v>8012</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4766</v>
+        <v>4896</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11664</v>
+        <v>11769</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4145238912911959</v>
+        <v>0.414523891291196</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2465598652345097</v>
+        <v>0.2533203227168679</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6034553012815073</v>
+        <v>0.6088568928550228</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -12978,19 +12978,19 @@
         <v>11174</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6658</v>
+        <v>6638</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16361</v>
+        <v>15685</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3899765276751359</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2323756912515917</v>
+        <v>0.2316679048282831</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5710269207237229</v>
+        <v>0.547445633546319</v>
       </c>
     </row>
     <row r="38">
@@ -13085,16 +13085,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4583</v>
+        <v>2869</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.07701617543067953</v>
+        <v>0.07701617543067954</v>
       </c>
       <c r="H39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5303029347257071</v>
+        <v>0.3319061590366126</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -13119,7 +13119,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2975</v>
+        <v>2845</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04939173092610612</v>
@@ -13128,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2207827184839484</v>
+        <v>0.2111012962052574</v>
       </c>
     </row>
     <row r="40">
@@ -13148,16 +13148,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3760</v>
+        <v>4323</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.1553473957120625</v>
+        <v>0.1553473957120626</v>
       </c>
       <c r="H40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4350485851916809</v>
+        <v>0.5002137523375814</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3175</v>
+        <v>3297</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2360778032507977</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6567336629189249</v>
+        <v>0.6819596880565378</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -13187,19 +13187,19 @@
         <v>2484</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5933</v>
+        <v>5389</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.1843040746228801</v>
+        <v>0.1843040746228802</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04756965415849177</v>
+        <v>0.04737468007540171</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4402063458863139</v>
+        <v>0.3998460151729438</v>
       </c>
     </row>
     <row r="41">
@@ -13219,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4175</v>
+        <v>4410</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1323942846601865</v>
@@ -13228,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4830485234006828</v>
+        <v>0.5102310832074648</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -13240,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2433</v>
+        <v>2966</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1564173400960499</v>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5032091423970676</v>
+        <v>0.6136606912443363</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -13261,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5597</v>
+        <v>5415</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1410109623646723</v>
@@ -13270,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.415336886869215</v>
+        <v>0.401789042224046</v>
       </c>
     </row>
     <row r="42">
@@ -13287,19 +13287,19 @@
         <v>5490</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2651</v>
+        <v>2727</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7913</v>
+        <v>7915</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6352421441970713</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3067087188663545</v>
+        <v>0.3155625266021881</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9155221117700592</v>
+        <v>0.915744293331302</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -13308,19 +13308,19 @@
         <v>2937</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4299</v>
+        <v>4303</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6075048566531525</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1770984650209189</v>
+        <v>0.1729289666092072</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8894265698911007</v>
+        <v>0.8901467786425247</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>11</v>
@@ -13329,19 +13329,19 @@
         <v>8427</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5237</v>
+        <v>5259</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>11334</v>
+        <v>11275</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6252932320863414</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3885991912520129</v>
+        <v>0.3901918507117009</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8409584283696331</v>
+        <v>0.8366390987530502</v>
       </c>
     </row>
     <row r="43">
@@ -13433,19 +13433,19 @@
         <v>17774</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2841288729539838</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -13454,19 +13454,19 @@
         <v>10272</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6418</v>
+        <v>6033</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>15885</v>
+        <v>15335</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.201554708459332</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1259375241777167</v>
+        <v>0.1183727587952329</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3116889990458611</v>
+        <v>0.3009081665139041</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>37</v>
@@ -13475,19 +13475,19 @@
         <v>28046</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>20581</v>
+        <v>21152</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>37637</v>
+        <v>37333</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2470574150554286</v>
+        <v>0.2470574150554285</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1813013118799221</v>
+        <v>0.186328504813216</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3315481902648355</v>
+        <v>0.3288637809110352</v>
       </c>
     </row>
     <row r="45">
@@ -13504,19 +13504,19 @@
         <v>8016</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>4210</v>
+        <v>4262</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13129</v>
+        <v>13395</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1281490925580644</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06730696440904869</v>
+        <v>0.06812498961226618</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2098775160481076</v>
+        <v>0.2141248268481726</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>19</v>
@@ -13525,19 +13525,19 @@
         <v>11726</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>7679</v>
+        <v>7399</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>17030</v>
+        <v>17095</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2300776049064704</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1506799097551065</v>
+        <v>0.145183204213255</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3341501379838434</v>
+        <v>0.3354293066234409</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>31</v>
@@ -13546,19 +13546,19 @@
         <v>19742</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>13517</v>
+        <v>13253</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>26744</v>
+        <v>26508</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1739096349421299</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1190689336482511</v>
+        <v>0.1167444981153046</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2355891797240329</v>
+        <v>0.2335110048061979</v>
       </c>
     </row>
     <row r="46">
@@ -13575,19 +13575,19 @@
         <v>13704</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8376</v>
+        <v>8245</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22322</v>
+        <v>21734</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.2190681851255995</v>
+        <v>0.2190681851255994</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1338940329418114</v>
+        <v>0.1318036552896473</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3568331286456874</v>
+        <v>0.3474458458156275</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>11</v>
@@ -13596,19 +13596,19 @@
         <v>6666</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3502</v>
+        <v>3604</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>11289</v>
+        <v>11344</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1308080056171692</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06871666020925675</v>
+        <v>0.07072123567613986</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2215151793644273</v>
+        <v>0.2225976416169597</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>26</v>
@@ -13617,19 +13617,19 @@
         <v>20370</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13056</v>
+        <v>13195</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>29162</v>
+        <v>29946</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1794440054709858</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1150112241920789</v>
+        <v>0.1162369966735616</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2568857156313013</v>
+        <v>0.2637978035334634</v>
       </c>
     </row>
     <row r="47">
@@ -13646,19 +13646,19 @@
         <v>23061</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>15873</v>
+        <v>16144</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>30668</v>
+        <v>30415</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.3686538493623523</v>
+        <v>0.3686538493623522</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2537379076335201</v>
+        <v>0.2580806550701801</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.4902565003503206</v>
+        <v>0.4862165328051609</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>33</v>
@@ -13667,19 +13667,19 @@
         <v>22300</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>16360</v>
+        <v>16785</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>28030</v>
+        <v>28417</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.4375596810170284</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3210064028454681</v>
+        <v>0.329356731811026</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5500020305849848</v>
+        <v>0.5575807497922785</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>58</v>
@@ -13688,19 +13688,19 @@
         <v>45361</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>36430</v>
+        <v>35849</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>54752</v>
+        <v>54629</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3995889445314558</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3209168384313582</v>
+        <v>0.315791614805788</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4823097134194295</v>
+        <v>0.481226647687741</v>
       </c>
     </row>
     <row r="48">
